--- a/ISEN/Microéconomie/CIPA3/FISA3 - Microéconomie - Valeur Actuellle - Mar25 vETUDIANT.xlsx
+++ b/ISEN/Microéconomie/CIPA3/FISA3 - Microéconomie - Valeur Actuellle - Mar25 vETUDIANT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://yncrea-my.sharepoint.com/personal/olivier_saquet_isen-ouest_yncrea_fr/Documents/Cours CIPA/CIPA3 - Microéconomie/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felixmarquet/Nextcloud/Documents/ISEN/Cours/Obsidian Vault/ISEN/Microéconomie/CIPA3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{86217A83-E4CA-4A74-A157-B339CA184AEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80F5A888-266F-FF41-880D-CCE95BDA056C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4D91B96A-84AB-46AF-9EAA-7329F93FBD97}"/>
+    <workbookView xWindow="0" yWindow="860" windowWidth="38400" windowHeight="22460" xr2:uid="{4D91B96A-84AB-46AF-9EAA-7329F93FBD97}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -435,13 +435,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9708A8C0-0749-42BC-829F-D4F0EA316A46}">
   <dimension ref="A2:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -449,7 +449,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -457,7 +457,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -471,168 +471,348 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="2">
+        <f>$B$2</f>
+        <v>1000</v>
+      </c>
+      <c r="C6" s="2">
+        <f>B6/((1 + $B$3)^A6)</f>
+        <v>943.39622641509425</v>
+      </c>
+      <c r="D6" s="2">
+        <f>SUM($C$6:C6)</f>
+        <v>943.39622641509425</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="2">
+        <f t="shared" ref="B7:B25" si="0">$B$2</f>
+        <v>1000</v>
+      </c>
+      <c r="C7" s="2">
+        <f t="shared" ref="C7:C25" si="1">B7/((1 + $B$3)^A7)</f>
+        <v>889.99644001423985</v>
+      </c>
+      <c r="D7" s="2">
+        <f>SUM($C$6:C7)</f>
+        <v>1833.392666429334</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>3</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="2">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="C8" s="2">
+        <f t="shared" si="1"/>
+        <v>839.61928303230161</v>
+      </c>
+      <c r="D8" s="2">
+        <f>SUM($C$6:C8)</f>
+        <v>2673.0119494616356</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>4</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="2">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="C9" s="2">
+        <f t="shared" si="1"/>
+        <v>792.09366323802044</v>
+      </c>
+      <c r="D9" s="2">
+        <f>SUM($C$6:C9)</f>
+        <v>3465.1056126996559</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>5</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="2">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="C10" s="2">
+        <f t="shared" si="1"/>
+        <v>747.25817286605684</v>
+      </c>
+      <c r="D10" s="2">
+        <f>SUM($C$6:C10)</f>
+        <v>4212.3637855657125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>6</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="2">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="C11" s="2">
+        <f t="shared" si="1"/>
+        <v>704.96054043967627</v>
+      </c>
+      <c r="D11" s="2">
+        <f>SUM($C$6:C11)</f>
+        <v>4917.3243260053887</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>7</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="2">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="C12" s="2">
+        <f t="shared" si="1"/>
+        <v>665.05711362233603</v>
+      </c>
+      <c r="D12" s="2">
+        <f>SUM($C$6:C12)</f>
+        <v>5582.3814396277248</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>8</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="2">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="C13" s="2">
+        <f t="shared" si="1"/>
+        <v>627.41237134182654</v>
+      </c>
+      <c r="D13" s="2">
+        <f>SUM($C$6:C13)</f>
+        <v>6209.7938109695515</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>9</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="2">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="C14" s="2">
+        <f t="shared" si="1"/>
+        <v>591.89846353002497</v>
+      </c>
+      <c r="D14" s="2">
+        <f>SUM($C$6:C14)</f>
+        <v>6801.6922744995763</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>10</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="2">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="C15" s="2">
+        <f t="shared" si="1"/>
+        <v>558.39477691511786</v>
+      </c>
+      <c r="D15" s="2">
+        <f>SUM($C$6:C15)</f>
+        <v>7360.0870514146945</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>11</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B16" s="2">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="C16" s="2">
+        <f t="shared" si="1"/>
+        <v>526.78752539162053</v>
+      </c>
+      <c r="D16" s="2">
+        <f>SUM($C$6:C16)</f>
+        <v>7886.8745768063154</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>12</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="2">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="C17" s="2">
+        <f t="shared" si="1"/>
+        <v>496.96936357700048</v>
+      </c>
+      <c r="D17" s="2">
+        <f>SUM($C$6:C17)</f>
+        <v>8383.8439403833163</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>13</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="2">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="C18" s="2">
+        <f t="shared" si="1"/>
+        <v>468.83902224245327</v>
+      </c>
+      <c r="D18" s="2">
+        <f>SUM($C$6:C18)</f>
+        <v>8852.6829626257695</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>14</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B19" s="2">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="C19" s="2">
+        <f t="shared" si="1"/>
+        <v>442.30096437967291</v>
+      </c>
+      <c r="D19" s="2">
+        <f>SUM($C$6:C19)</f>
+        <v>9294.9839270054417</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>15</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B20" s="2">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="C20" s="2">
+        <f t="shared" si="1"/>
+        <v>417.26506073554037</v>
+      </c>
+      <c r="D20" s="2">
+        <f>SUM($C$6:C20)</f>
+        <v>9712.2489877409826</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>16</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B21" s="2">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="C21" s="2">
+        <f t="shared" si="1"/>
+        <v>393.64628371277399</v>
+      </c>
+      <c r="D21" s="2">
+        <f>SUM($C$6:C21)</f>
+        <v>10105.895271453757</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>17</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="2">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="C22" s="2">
+        <f t="shared" si="1"/>
+        <v>371.36441859695657</v>
+      </c>
+      <c r="D22" s="2">
+        <f>SUM($C$6:C22)</f>
+        <v>10477.259690050714</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>18</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B23" s="2">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="C23" s="2">
+        <f t="shared" si="1"/>
+        <v>350.34379112920431</v>
+      </c>
+      <c r="D23" s="2">
+        <f>SUM($C$6:C23)</f>
+        <v>10827.603481179918</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>19</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
+      <c r="B24" s="2">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="C24" s="2">
+        <f t="shared" si="1"/>
+        <v>330.51301049924933</v>
+      </c>
+      <c r="D24" s="2">
+        <f>SUM($C$6:C24)</f>
+        <v>11158.116491679168</v>
+      </c>
       <c r="F24" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>20</v>
       </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
+      <c r="B25" s="2">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="C25" s="2">
+        <f t="shared" si="1"/>
+        <v>311.80472688608427</v>
+      </c>
+      <c r="D25" s="2">
+        <f>SUM($C$6:C25)</f>
+        <v>11469.921218565252</v>
+      </c>
       <c r="F25" s="2"/>
     </row>
   </sheetData>

--- a/ISEN/Microéconomie/CIPA3/FISA3 - Microéconomie - Valeur Actuellle - Mar25 vETUDIANT.xlsx
+++ b/ISEN/Microéconomie/CIPA3/FISA3 - Microéconomie - Valeur Actuellle - Mar25 vETUDIANT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felixmarquet/Nextcloud/Documents/ISEN/Cours/Obsidian Vault/ISEN/Microéconomie/CIPA3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80F5A888-266F-FF41-880D-CCE95BDA056C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED0CBE0-F29A-CB4B-8921-AEFA43A8B8A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="860" windowWidth="38400" windowHeight="22460" xr2:uid="{4D91B96A-84AB-46AF-9EAA-7329F93FBD97}"/>
   </bookViews>
@@ -436,7 +436,7 @@
   <dimension ref="A2:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -480,7 +480,7 @@
         <v>1000</v>
       </c>
       <c r="C6" s="2">
-        <f>B6/((1 + $B$3)^A6)</f>
+        <f>$B6/((1 + $B$3)^A6)</f>
         <v>943.39622641509425</v>
       </c>
       <c r="D6" s="2">
@@ -497,7 +497,7 @@
         <v>1000</v>
       </c>
       <c r="C7" s="2">
-        <f t="shared" ref="C7:C25" si="1">B7/((1 + $B$3)^A7)</f>
+        <f t="shared" ref="C7:C25" si="1">$B7/((1 + $B$3)^A7)</f>
         <v>889.99644001423985</v>
       </c>
       <c r="D7" s="2">

--- a/ISEN/Microéconomie/CIPA3/FISA3 - Microéconomie - Valeur Actuellle - Mar25 vETUDIANT.xlsx
+++ b/ISEN/Microéconomie/CIPA3/FISA3 - Microéconomie - Valeur Actuellle - Mar25 vETUDIANT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felixmarquet/Nextcloud/Documents/ISEN/Cours/Obsidian Vault/ISEN/Microéconomie/CIPA3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED0CBE0-F29A-CB4B-8921-AEFA43A8B8A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C97F217-8B93-A544-B66E-7D7DF0CC0F5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="860" windowWidth="38400" windowHeight="22460" xr2:uid="{4D91B96A-84AB-46AF-9EAA-7329F93FBD97}"/>
   </bookViews>
@@ -60,6 +60,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;_);[Red]\(#,##0.00\ &quot;€&quot;\)"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -95,10 +98,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="8" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,7 +440,7 @@
   <dimension ref="A2:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -813,7 +817,10 @@
         <f>SUM($C$6:C25)</f>
         <v>11469.921218565252</v>
       </c>
-      <c r="F25" s="2"/>
+      <c r="F25" s="3">
+        <f>PV(B3,A25,B2)</f>
+        <v>-11469.921218565263</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ISEN/Microéconomie/CIPA3/FISA3 - Microéconomie - Valeur Actuellle - Mar25 vETUDIANT.xlsx
+++ b/ISEN/Microéconomie/CIPA3/FISA3 - Microéconomie - Valeur Actuellle - Mar25 vETUDIANT.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felixmarquet/Nextcloud/Documents/ISEN/Cours/Obsidian Vault/ISEN/Microéconomie/CIPA3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C97F217-8B93-A544-B66E-7D7DF0CC0F5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA3D8905-8978-1B48-8FB8-64DDA042DCD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="860" windowWidth="38400" windowHeight="22460" xr2:uid="{4D91B96A-84AB-46AF-9EAA-7329F93FBD97}"/>
+    <workbookView xWindow="0" yWindow="860" windowWidth="38400" windowHeight="22460" activeTab="1" xr2:uid="{4D91B96A-84AB-46AF-9EAA-7329F93FBD97}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="20M ma gueule" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
   <si>
     <t>Rente</t>
   </si>
@@ -54,6 +55,9 @@
   </si>
   <si>
     <t>Formule</t>
+  </si>
+  <si>
+    <t>Pourcentage idéal</t>
   </si>
 </sst>
 </file>
@@ -439,8 +443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9708A8C0-0749-42BC-829F-D4F0EA316A46}">
   <dimension ref="A2:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -818,8 +822,617 @@
         <v>11469.921218565252</v>
       </c>
       <c r="F25" s="3">
-        <f>PV(B3,A25,B2)</f>
-        <v>-11469.921218565263</v>
+        <f>-1*PV(B3,A25,B2)</f>
+        <v>11469.921218565263</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8E23158-3900-5248-AFEB-D840A662C0BA}">
+  <dimension ref="A2:Y30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="12" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="19" width="14" bestFit="1" customWidth="1"/>
+    <col min="20" max="25" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="H3" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0.11</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="P3" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="R3" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="S3" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="T3" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="U3" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2">
+        <f>$B$2</f>
+        <v>1000000</v>
+      </c>
+      <c r="C6" s="2">
+        <f>$B6/((1 + $B$3)^A6)</f>
+        <v>990099.00990099006</v>
+      </c>
+      <c r="D6" s="2">
+        <f>SUM($C$6:C6)</f>
+        <v>990099.00990099006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2">
+        <f t="shared" ref="B7:B25" si="0">$B$2</f>
+        <v>1000000</v>
+      </c>
+      <c r="C7" s="2">
+        <f t="shared" ref="C7:C25" si="1">$B7/((1 + $B$3)^A7)</f>
+        <v>980296.04940692091</v>
+      </c>
+      <c r="D7" s="2">
+        <f>SUM($C$6:C7)</f>
+        <v>1970395.059307911</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2">
+        <f t="shared" si="0"/>
+        <v>1000000</v>
+      </c>
+      <c r="C8" s="2">
+        <f t="shared" si="1"/>
+        <v>970590.14792764455</v>
+      </c>
+      <c r="D8" s="2">
+        <f>SUM($C$6:C8)</f>
+        <v>2940985.2072355556</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2">
+        <f t="shared" si="0"/>
+        <v>1000000</v>
+      </c>
+      <c r="C9" s="2">
+        <f t="shared" si="1"/>
+        <v>960980.34448281629</v>
+      </c>
+      <c r="D9" s="2">
+        <f>SUM($C$6:C9)</f>
+        <v>3901965.5517183719</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10" s="2">
+        <f t="shared" si="0"/>
+        <v>1000000</v>
+      </c>
+      <c r="C10" s="2">
+        <f t="shared" si="1"/>
+        <v>951465.68760674889</v>
+      </c>
+      <c r="D10" s="2">
+        <f>SUM($C$6:C10)</f>
+        <v>4853431.239325121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11" s="2">
+        <f t="shared" si="0"/>
+        <v>1000000</v>
+      </c>
+      <c r="C11" s="2">
+        <f t="shared" si="1"/>
+        <v>942045.23525420658</v>
+      </c>
+      <c r="D11" s="2">
+        <f>SUM($C$6:C11)</f>
+        <v>5795476.4745793277</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>7</v>
+      </c>
+      <c r="B12" s="2">
+        <f t="shared" si="0"/>
+        <v>1000000</v>
+      </c>
+      <c r="C12" s="2">
+        <f t="shared" si="1"/>
+        <v>932718.05470713554</v>
+      </c>
+      <c r="D12" s="2">
+        <f>SUM($C$6:C12)</f>
+        <v>6728194.5292864628</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>8</v>
+      </c>
+      <c r="B13" s="2">
+        <f t="shared" si="0"/>
+        <v>1000000</v>
+      </c>
+      <c r="C13" s="2">
+        <f t="shared" si="1"/>
+        <v>923483.22248231212</v>
+      </c>
+      <c r="D13" s="2">
+        <f>SUM($C$6:C13)</f>
+        <v>7651677.7517687753</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>9</v>
+      </c>
+      <c r="B14" s="2">
+        <f t="shared" si="0"/>
+        <v>1000000</v>
+      </c>
+      <c r="C14" s="2">
+        <f t="shared" si="1"/>
+        <v>914339.82423991291</v>
+      </c>
+      <c r="D14" s="2">
+        <f>SUM($C$6:C14)</f>
+        <v>8566017.5760086887</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>10</v>
+      </c>
+      <c r="B15" s="2">
+        <f t="shared" si="0"/>
+        <v>1000000</v>
+      </c>
+      <c r="C15" s="2">
+        <f t="shared" si="1"/>
+        <v>905286.95469298307</v>
+      </c>
+      <c r="D15" s="2">
+        <f>SUM($C$6:C15)</f>
+        <v>9471304.5307016708</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>11</v>
+      </c>
+      <c r="B16" s="2">
+        <f t="shared" si="0"/>
+        <v>1000000</v>
+      </c>
+      <c r="C16" s="2">
+        <f t="shared" si="1"/>
+        <v>896323.71751780529</v>
+      </c>
+      <c r="D16" s="2">
+        <f>SUM($C$6:C16)</f>
+        <v>10367628.248219475</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>12</v>
+      </c>
+      <c r="B17" s="2">
+        <f t="shared" si="0"/>
+        <v>1000000</v>
+      </c>
+      <c r="C17" s="2">
+        <f t="shared" si="1"/>
+        <v>887449.22526515368</v>
+      </c>
+      <c r="D17" s="2">
+        <f>SUM($C$6:C17)</f>
+        <v>11255077.473484628</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>13</v>
+      </c>
+      <c r="B18" s="2">
+        <f t="shared" si="0"/>
+        <v>1000000</v>
+      </c>
+      <c r="C18" s="2">
+        <f t="shared" si="1"/>
+        <v>878662.59927242936</v>
+      </c>
+      <c r="D18" s="2">
+        <f>SUM($C$6:C18)</f>
+        <v>12133740.072757058</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>14</v>
+      </c>
+      <c r="B19" s="2">
+        <f t="shared" si="0"/>
+        <v>1000000</v>
+      </c>
+      <c r="C19" s="2">
+        <f t="shared" si="1"/>
+        <v>869962.96957666264</v>
+      </c>
+      <c r="D19" s="2">
+        <f>SUM($C$6:C19)</f>
+        <v>13003703.04233372</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>15</v>
+      </c>
+      <c r="B20" s="2">
+        <f t="shared" si="0"/>
+        <v>1000000</v>
+      </c>
+      <c r="C20" s="2">
+        <f t="shared" si="1"/>
+        <v>861349.474828379</v>
+      </c>
+      <c r="D20" s="2">
+        <f>SUM($C$6:C20)</f>
+        <v>13865052.517162099</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>16</v>
+      </c>
+      <c r="B21" s="2">
+        <f t="shared" si="0"/>
+        <v>1000000</v>
+      </c>
+      <c r="C21" s="2">
+        <f t="shared" si="1"/>
+        <v>852821.26220631565</v>
+      </c>
+      <c r="D21" s="2">
+        <f>SUM($C$6:C21)</f>
+        <v>14717873.779368415</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>17</v>
+      </c>
+      <c r="B22" s="2">
+        <f t="shared" si="0"/>
+        <v>1000000</v>
+      </c>
+      <c r="C22" s="2">
+        <f t="shared" si="1"/>
+        <v>844377.48733298574</v>
+      </c>
+      <c r="D22" s="2">
+        <f>SUM($C$6:C22)</f>
+        <v>15562251.2667014</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>18</v>
+      </c>
+      <c r="B23" s="2">
+        <f t="shared" si="0"/>
+        <v>1000000</v>
+      </c>
+      <c r="C23" s="2">
+        <f t="shared" si="1"/>
+        <v>836017.31419107493</v>
+      </c>
+      <c r="D23" s="2">
+        <f>SUM($C$6:C23)</f>
+        <v>16398268.580892475</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>19</v>
+      </c>
+      <c r="B24" s="2">
+        <f t="shared" si="0"/>
+        <v>1000000</v>
+      </c>
+      <c r="C24" s="2">
+        <f t="shared" si="1"/>
+        <v>827739.91504066845</v>
+      </c>
+      <c r="D24" s="2">
+        <f>SUM($C$6:C24)</f>
+        <v>17226008.495933145</v>
+      </c>
+      <c r="F24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>20</v>
+      </c>
+      <c r="B25" s="2">
+        <f t="shared" si="0"/>
+        <v>1000000</v>
+      </c>
+      <c r="C25" s="2">
+        <f t="shared" si="1"/>
+        <v>819544.47033729544</v>
+      </c>
+      <c r="D25" s="2">
+        <f>SUM($C$6:C25)</f>
+        <v>18045552.966270439</v>
+      </c>
+      <c r="F25" s="3">
+        <f>-1*PV(B$3,$A$25,$B$2)</f>
+        <v>18045552.966270458</v>
+      </c>
+      <c r="G25" s="3">
+        <f t="shared" ref="G25:Y25" si="2">-1*PV(C$3,$A$25,$B$2)</f>
+        <v>16351433.344597112</v>
+      </c>
+      <c r="H25" s="3">
+        <f t="shared" si="2"/>
+        <v>14877474.860455502</v>
+      </c>
+      <c r="I25" s="3">
+        <f t="shared" si="2"/>
+        <v>13590326.344967697</v>
+      </c>
+      <c r="J25" s="3">
+        <f t="shared" si="2"/>
+        <v>12462210.342539987</v>
+      </c>
+      <c r="K25" s="3">
+        <f t="shared" si="2"/>
+        <v>11469921.218565263</v>
+      </c>
+      <c r="L25" s="3">
+        <f t="shared" si="2"/>
+        <v>10594014.245516161</v>
+      </c>
+      <c r="M25" s="3">
+        <f t="shared" si="2"/>
+        <v>9818147.4074492939</v>
+      </c>
+      <c r="N25" s="3">
+        <f t="shared" si="2"/>
+        <v>9128545.6690859217</v>
+      </c>
+      <c r="O25" s="3">
+        <f t="shared" si="2"/>
+        <v>8513563.7197585646</v>
+      </c>
+      <c r="P25" s="3">
+        <f t="shared" si="2"/>
+        <v>7963328.117366882</v>
+      </c>
+      <c r="Q25" s="3">
+        <f t="shared" si="2"/>
+        <v>7469443.6243275963</v>
+      </c>
+      <c r="R25" s="3">
+        <f t="shared" si="2"/>
+        <v>7024751.5780640049</v>
+      </c>
+      <c r="S25" s="3">
+        <f t="shared" si="2"/>
+        <v>6623130.5516159441</v>
+      </c>
+      <c r="T25" s="3">
+        <f t="shared" si="2"/>
+        <v>6259331.4737296449</v>
+      </c>
+      <c r="U25" s="3">
+        <f t="shared" si="2"/>
+        <v>5928840.8995523239</v>
+      </c>
+      <c r="V25" s="3">
+        <f t="shared" si="2"/>
+        <v>5627767.3362106076</v>
+      </c>
+      <c r="W25" s="3">
+        <f t="shared" si="2"/>
+        <v>5352746.4971278869</v>
+      </c>
+      <c r="X25" s="3">
+        <f t="shared" si="2"/>
+        <v>5100862.1357728401</v>
+      </c>
+      <c r="Y25" s="3">
+        <f t="shared" si="2"/>
+        <v>4869579.7334770551</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="F26" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="K26" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="L26" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M26" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="N26" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="O26" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="P26" s="1">
+        <v>0.11</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="R26" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="S26" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="T26" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="U26" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="V26" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="W26" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="X26" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Y26" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="F28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="F29">
+        <f>-1*PV(F30,$A$25,$B$2)</f>
+        <v>10000000.000000853</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="F30" s="1">
+        <v>7.7546895300093871E-2</v>
       </c>
     </row>
   </sheetData>

--- a/ISEN/Microéconomie/CIPA3/FISA3 - Microéconomie - Valeur Actuellle - Mar25 vETUDIANT.xlsx
+++ b/ISEN/Microéconomie/CIPA3/FISA3 - Microéconomie - Valeur Actuellle - Mar25 vETUDIANT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felixmarquet/Nextcloud/Documents/ISEN/Cours/Obsidian Vault/ISEN/Microéconomie/CIPA3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA3D8905-8978-1B48-8FB8-64DDA042DCD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75972474-8978-5F4F-89F8-25A150B034C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="860" windowWidth="38400" windowHeight="22460" activeTab="1" xr2:uid="{4D91B96A-84AB-46AF-9EAA-7329F93FBD97}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
   <si>
     <t>Rente</t>
   </si>
@@ -57,7 +57,10 @@
     <t>Formule</t>
   </si>
   <si>
-    <t>Pourcentage idéal</t>
+    <t>Pourcentage idéal pour garder les 20 M a la fin</t>
+  </si>
+  <si>
+    <t>Pourcentage idéal pour dépasser les 10 M</t>
   </si>
 </sst>
 </file>
@@ -833,15 +836,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8E23158-3900-5248-AFEB-D840A662C0BA}">
-  <dimension ref="A2:Y30"/>
+  <dimension ref="A2:U30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="12" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="13" max="19" width="14" bestFit="1" customWidth="1"/>
     <col min="20" max="25" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="14" bestFit="1" customWidth="1"/>
@@ -862,63 +867,25 @@
       <c r="B3" s="1">
         <v>0.01</v>
       </c>
-      <c r="C3" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0.06</v>
-      </c>
-      <c r="H3" s="1">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0.08</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0.09</v>
-      </c>
-      <c r="K3" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="L3" s="1">
-        <v>0.11</v>
-      </c>
-      <c r="M3" s="1">
-        <v>0.12</v>
-      </c>
-      <c r="N3" s="1">
-        <v>0.13</v>
-      </c>
-      <c r="O3" s="1">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="P3" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="R3" s="1">
-        <v>0.17</v>
-      </c>
-      <c r="S3" s="1">
-        <v>0.18</v>
-      </c>
-      <c r="T3" s="1">
-        <v>0.19</v>
-      </c>
-      <c r="U3" s="1">
-        <v>0.2</v>
-      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -950,6 +917,13 @@
         <f>SUM($C$6:C6)</f>
         <v>990099.00990099006</v>
       </c>
+      <c r="F6" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="G6">
+        <f>-1*PV($F6,$A$25,$B$2)</f>
+        <v>18045552.966270458</v>
+      </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -967,6 +941,13 @@
         <f>SUM($C$6:C7)</f>
         <v>1970395.059307911</v>
       </c>
+      <c r="F7" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="G7">
+        <f t="shared" ref="G7:G25" si="2">-1*PV($F7,$A$25,$B$2)</f>
+        <v>16351433.344597112</v>
+      </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -984,6 +965,13 @@
         <f>SUM($C$6:C8)</f>
         <v>2940985.2072355556</v>
       </c>
+      <c r="F8" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>14877474.860455502</v>
+      </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -1001,6 +989,13 @@
         <f>SUM($C$6:C9)</f>
         <v>3901965.5517183719</v>
       </c>
+      <c r="F9" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>13590326.344967697</v>
+      </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -1018,6 +1013,13 @@
         <f>SUM($C$6:C10)</f>
         <v>4853431.239325121</v>
       </c>
+      <c r="F10" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>12462210.342539987</v>
+      </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11">
@@ -1035,6 +1037,13 @@
         <f>SUM($C$6:C11)</f>
         <v>5795476.4745793277</v>
       </c>
+      <c r="F11" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>11469921.218565263</v>
+      </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12">
@@ -1052,6 +1061,13 @@
         <f>SUM($C$6:C12)</f>
         <v>6728194.5292864628</v>
       </c>
+      <c r="F12" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>10594014.245516161</v>
+      </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13">
@@ -1069,6 +1085,13 @@
         <f>SUM($C$6:C13)</f>
         <v>7651677.7517687753</v>
       </c>
+      <c r="F13" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>9818147.4074492939</v>
+      </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14">
@@ -1086,6 +1109,13 @@
         <f>SUM($C$6:C14)</f>
         <v>8566017.5760086887</v>
       </c>
+      <c r="F14" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>9128545.6690859217</v>
+      </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15">
@@ -1103,6 +1133,13 @@
         <f>SUM($C$6:C15)</f>
         <v>9471304.5307016708</v>
       </c>
+      <c r="F15" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="2"/>
+        <v>8513563.7197585646</v>
+      </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16">
@@ -1120,8 +1157,15 @@
         <f>SUM($C$6:C16)</f>
         <v>10367628.248219475</v>
       </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="F16" s="1">
+        <v>0.11</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>7963328.117366882</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>12</v>
       </c>
@@ -1137,8 +1181,15 @@
         <f>SUM($C$6:C17)</f>
         <v>11255077.473484628</v>
       </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="F17" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>7469443.6243275963</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>13</v>
       </c>
@@ -1154,8 +1205,15 @@
         <f>SUM($C$6:C18)</f>
         <v>12133740.072757058</v>
       </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="F18" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="2"/>
+        <v>7024751.5780640049</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>14</v>
       </c>
@@ -1171,8 +1229,15 @@
         <f>SUM($C$6:C19)</f>
         <v>13003703.04233372</v>
       </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="F19" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="2"/>
+        <v>6623130.5516159441</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>15</v>
       </c>
@@ -1188,8 +1253,15 @@
         <f>SUM($C$6:C20)</f>
         <v>13865052.517162099</v>
       </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="F20" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="2"/>
+        <v>6259331.4737296449</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>16</v>
       </c>
@@ -1205,8 +1277,15 @@
         <f>SUM($C$6:C21)</f>
         <v>14717873.779368415</v>
       </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="F21" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="2"/>
+        <v>5928840.8995523239</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>17</v>
       </c>
@@ -1222,8 +1301,15 @@
         <f>SUM($C$6:C22)</f>
         <v>15562251.2667014</v>
       </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="F22" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="2"/>
+        <v>5627767.3362106076</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>18</v>
       </c>
@@ -1239,8 +1325,15 @@
         <f>SUM($C$6:C23)</f>
         <v>16398268.580892475</v>
       </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="F23" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="2"/>
+        <v>5352746.4971278869</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>19</v>
       </c>
@@ -1256,11 +1349,15 @@
         <f>SUM($C$6:C24)</f>
         <v>17226008.495933145</v>
       </c>
-      <c r="F24" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="F24" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="G24">
+        <f>-1*PV($F24,$A$25,$B$2)</f>
+        <v>5100862.1357728401</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>20</v>
       </c>
@@ -1276,162 +1373,41 @@
         <f>SUM($C$6:C25)</f>
         <v>18045552.966270439</v>
       </c>
-      <c r="F25" s="3">
-        <f>-1*PV(B$3,$A$25,$B$2)</f>
-        <v>18045552.966270458</v>
-      </c>
-      <c r="G25" s="3">
-        <f t="shared" ref="G25:Y25" si="2">-1*PV(C$3,$A$25,$B$2)</f>
-        <v>16351433.344597112</v>
-      </c>
-      <c r="H25" s="3">
-        <f t="shared" si="2"/>
-        <v>14877474.860455502</v>
-      </c>
-      <c r="I25" s="3">
-        <f t="shared" si="2"/>
-        <v>13590326.344967697</v>
-      </c>
-      <c r="J25" s="3">
-        <f t="shared" si="2"/>
-        <v>12462210.342539987</v>
-      </c>
-      <c r="K25" s="3">
-        <f t="shared" si="2"/>
-        <v>11469921.218565263</v>
-      </c>
-      <c r="L25" s="3">
-        <f t="shared" si="2"/>
-        <v>10594014.245516161</v>
-      </c>
-      <c r="M25" s="3">
-        <f t="shared" si="2"/>
-        <v>9818147.4074492939</v>
-      </c>
-      <c r="N25" s="3">
-        <f t="shared" si="2"/>
-        <v>9128545.6690859217</v>
-      </c>
-      <c r="O25" s="3">
-        <f t="shared" si="2"/>
-        <v>8513563.7197585646</v>
-      </c>
-      <c r="P25" s="3">
-        <f t="shared" si="2"/>
-        <v>7963328.117366882</v>
-      </c>
-      <c r="Q25" s="3">
-        <f t="shared" si="2"/>
-        <v>7469443.6243275963</v>
-      </c>
-      <c r="R25" s="3">
-        <f t="shared" si="2"/>
-        <v>7024751.5780640049</v>
-      </c>
-      <c r="S25" s="3">
-        <f t="shared" si="2"/>
-        <v>6623130.5516159441</v>
-      </c>
-      <c r="T25" s="3">
-        <f t="shared" si="2"/>
-        <v>6259331.4737296449</v>
-      </c>
-      <c r="U25" s="3">
-        <f t="shared" si="2"/>
-        <v>5928840.8995523239</v>
-      </c>
-      <c r="V25" s="3">
-        <f t="shared" si="2"/>
-        <v>5627767.3362106076</v>
-      </c>
-      <c r="W25" s="3">
-        <f t="shared" si="2"/>
-        <v>5352746.4971278869</v>
-      </c>
-      <c r="X25" s="3">
-        <f t="shared" si="2"/>
-        <v>5100862.1357728401</v>
-      </c>
-      <c r="Y25" s="3">
+      <c r="F25" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="G25">
         <f t="shared" si="2"/>
         <v>4869579.7334770551</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="F26" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="G26" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="H26" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="I26" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="J26" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="K26" s="1">
-        <v>0.06</v>
-      </c>
-      <c r="L26" s="1">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M26" s="1">
-        <v>0.08</v>
-      </c>
-      <c r="N26" s="1">
-        <v>0.09</v>
-      </c>
-      <c r="O26" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="P26" s="1">
-        <v>0.11</v>
-      </c>
-      <c r="Q26" s="1">
-        <v>0.12</v>
-      </c>
-      <c r="R26" s="1">
-        <v>0.13</v>
-      </c>
-      <c r="S26" s="1">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="T26" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="U26" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="V26" s="1">
-        <v>0.17</v>
-      </c>
-      <c r="W26" s="1">
-        <v>0.18</v>
-      </c>
-      <c r="X26" s="1">
-        <v>0.19</v>
-      </c>
-      <c r="Y26" s="1">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F28" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="G28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F29">
         <f>-1*PV(F30,$A$25,$B$2)</f>
+        <v>20000000</v>
+      </c>
+      <c r="G29">
+        <f>-1*PV(G30,$A$25,$B$2)</f>
         <v>10000000.000000853</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F30" s="1">
+        <v>1.1815372845129261E-9</v>
+      </c>
+      <c r="G30" s="1">
         <v>7.7546895300093871E-2</v>
       </c>
     </row>

--- a/ISEN/Microéconomie/CIPA3/FISA3 - Microéconomie - Valeur Actuellle - Mar25 vETUDIANT.xlsx
+++ b/ISEN/Microéconomie/CIPA3/FISA3 - Microéconomie - Valeur Actuellle - Mar25 vETUDIANT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felixmarquet/Nextcloud/Documents/ISEN/Cours/Obsidian Vault/ISEN/Microéconomie/CIPA3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75972474-8978-5F4F-89F8-25A150B034C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2450A67-5E3E-8240-BCBB-14E3FDE3186F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="860" windowWidth="38400" windowHeight="22460" activeTab="1" xr2:uid="{4D91B96A-84AB-46AF-9EAA-7329F93FBD97}"/>
   </bookViews>
@@ -839,7 +839,7 @@
   <dimension ref="A2:U30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/ISEN/Microéconomie/CIPA3/FISA3 - Microéconomie - Valeur Actuellle - Mar25 vETUDIANT.xlsx
+++ b/ISEN/Microéconomie/CIPA3/FISA3 - Microéconomie - Valeur Actuellle - Mar25 vETUDIANT.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felixmarquet/Nextcloud/Documents/ISEN/Cours/Obsidian Vault/ISEN/Microéconomie/CIPA3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felixmarquet/Nextcloud/Documents/ISEN/Cours/Obsidian Vault/ISEN/Microéconomie/CIPA3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2450A67-5E3E-8240-BCBB-14E3FDE3186F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{646DED5E-A54C-1D46-930F-8799D945B85B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="860" windowWidth="38400" windowHeight="22460" activeTab="1" xr2:uid="{4D91B96A-84AB-46AF-9EAA-7329F93FBD97}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
     <sheet name="20M ma gueule" sheetId="2" r:id="rId2"/>
+    <sheet name="Feuil2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="8">
   <si>
     <t>Rente</t>
   </si>
@@ -447,17 +448,20 @@
   <dimension ref="A2:F25"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -465,7 +469,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -488,15 +492,15 @@
       </c>
       <c r="B6" s="2">
         <f>$B$2</f>
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="C6" s="2">
         <f>$B6/((1 + $B$3)^A6)</f>
-        <v>943.39622641509425</v>
+        <v>9615.3846153846152</v>
       </c>
       <c r="D6" s="2">
         <f>SUM($C$6:C6)</f>
-        <v>943.39622641509425</v>
+        <v>9615.3846153846152</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -505,15 +509,15 @@
       </c>
       <c r="B7" s="2">
         <f t="shared" ref="B7:B25" si="0">$B$2</f>
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="C7" s="2">
         <f t="shared" ref="C7:C25" si="1">$B7/((1 + $B$3)^A7)</f>
-        <v>889.99644001423985</v>
+        <v>9245.5621301775136</v>
       </c>
       <c r="D7" s="2">
         <f>SUM($C$6:C7)</f>
-        <v>1833.392666429334</v>
+        <v>18860.946745562127</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -522,15 +526,15 @@
       </c>
       <c r="B8" s="2">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" si="1"/>
-        <v>839.61928303230161</v>
+        <v>8889.9635867091474</v>
       </c>
       <c r="D8" s="2">
         <f>SUM($C$6:C8)</f>
-        <v>2673.0119494616356</v>
+        <v>27750.910332271276</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -539,15 +543,15 @@
       </c>
       <c r="B9" s="2">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="C9" s="2">
         <f t="shared" si="1"/>
-        <v>792.09366323802044</v>
+        <v>8548.0419102972573</v>
       </c>
       <c r="D9" s="2">
         <f>SUM($C$6:C9)</f>
-        <v>3465.1056126996559</v>
+        <v>36298.952242568535</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -556,15 +560,15 @@
       </c>
       <c r="B10" s="2">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="C10" s="2">
         <f t="shared" si="1"/>
-        <v>747.25817286605684</v>
+        <v>8219.2710675935159</v>
       </c>
       <c r="D10" s="2">
         <f>SUM($C$6:C10)</f>
-        <v>4212.3637855657125</v>
+        <v>44518.223310162051</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -573,15 +577,15 @@
       </c>
       <c r="B11" s="2">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="C11" s="2">
         <f t="shared" si="1"/>
-        <v>704.96054043967627</v>
+        <v>7903.1452573014567</v>
       </c>
       <c r="D11" s="2">
         <f>SUM($C$6:C11)</f>
-        <v>4917.3243260053887</v>
+        <v>52421.368567463505</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -590,15 +594,15 @@
       </c>
       <c r="B12" s="2">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="C12" s="2">
         <f t="shared" si="1"/>
-        <v>665.05711362233603</v>
+        <v>7599.1781320206328</v>
       </c>
       <c r="D12" s="2">
         <f>SUM($C$6:C12)</f>
-        <v>5582.3814396277248</v>
+        <v>60020.546699484141</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -607,15 +611,15 @@
       </c>
       <c r="B13" s="2">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="C13" s="2">
         <f t="shared" si="1"/>
-        <v>627.41237134182654</v>
+        <v>7306.9020500198376</v>
       </c>
       <c r="D13" s="2">
         <f>SUM($C$6:C13)</f>
-        <v>6209.7938109695515</v>
+        <v>67327.448749503979</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -624,15 +628,15 @@
       </c>
       <c r="B14" s="2">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="C14" s="2">
         <f t="shared" si="1"/>
-        <v>591.89846353002497</v>
+        <v>7025.8673557883048</v>
       </c>
       <c r="D14" s="2">
         <f>SUM($C$6:C14)</f>
-        <v>6801.6922744995763</v>
+        <v>74353.316105292281</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -641,15 +645,15 @@
       </c>
       <c r="B15" s="2">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="C15" s="2">
         <f t="shared" si="1"/>
-        <v>558.39477691511786</v>
+        <v>6755.6416882579852</v>
       </c>
       <c r="D15" s="2">
         <f>SUM($C$6:C15)</f>
-        <v>7360.0870514146945</v>
+        <v>81108.95779355026</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -658,15 +662,15 @@
       </c>
       <c r="B16" s="2">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="C16" s="2">
         <f t="shared" si="1"/>
-        <v>526.78752539162053</v>
+        <v>6495.8093156326786</v>
       </c>
       <c r="D16" s="2">
         <f>SUM($C$6:C16)</f>
-        <v>7886.8745768063154</v>
+        <v>87604.76710918294</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -675,15 +679,15 @@
       </c>
       <c r="B17" s="2">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="C17" s="2">
         <f t="shared" si="1"/>
-        <v>496.96936357700048</v>
+        <v>6245.9704958006514</v>
       </c>
       <c r="D17" s="2">
         <f>SUM($C$6:C17)</f>
-        <v>8383.8439403833163</v>
+        <v>93850.737604983588</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -692,15 +696,15 @@
       </c>
       <c r="B18" s="2">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="C18" s="2">
         <f t="shared" si="1"/>
-        <v>468.83902224245327</v>
+        <v>6005.7408613467796</v>
       </c>
       <c r="D18" s="2">
         <f>SUM($C$6:C18)</f>
-        <v>8852.6829626257695</v>
+        <v>99856.478466330373</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -709,15 +713,15 @@
       </c>
       <c r="B19" s="2">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="C19" s="2">
         <f t="shared" si="1"/>
-        <v>442.30096437967291</v>
+        <v>5774.7508282180579</v>
       </c>
       <c r="D19" s="2">
         <f>SUM($C$6:C19)</f>
-        <v>9294.9839270054417</v>
+        <v>105631.22929454844</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -726,15 +730,15 @@
       </c>
       <c r="B20" s="2">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="C20" s="2">
         <f t="shared" si="1"/>
-        <v>417.26506073554037</v>
+        <v>5552.6450271327476</v>
       </c>
       <c r="D20" s="2">
         <f>SUM($C$6:C20)</f>
-        <v>9712.2489877409826</v>
+        <v>111183.87432168119</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -743,15 +747,15 @@
       </c>
       <c r="B21" s="2">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="C21" s="2">
         <f t="shared" si="1"/>
-        <v>393.64628371277399</v>
+        <v>5339.0817568584107</v>
       </c>
       <c r="D21" s="2">
         <f>SUM($C$6:C21)</f>
-        <v>10105.895271453757</v>
+        <v>116522.9560785396</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -760,15 +764,15 @@
       </c>
       <c r="B22" s="2">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="C22" s="2">
         <f t="shared" si="1"/>
-        <v>371.36441859695657</v>
+        <v>5133.7324585177021</v>
       </c>
       <c r="D22" s="2">
         <f>SUM($C$6:C22)</f>
-        <v>10477.259690050714</v>
+        <v>121656.6885370573</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -777,15 +781,15 @@
       </c>
       <c r="B23" s="2">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="C23" s="2">
         <f t="shared" si="1"/>
-        <v>350.34379112920431</v>
+        <v>4936.2812101131749</v>
       </c>
       <c r="D23" s="2">
         <f>SUM($C$6:C23)</f>
-        <v>10827.603481179918</v>
+        <v>126592.96974717047</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -794,15 +798,15 @@
       </c>
       <c r="B24" s="2">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="C24" s="2">
         <f t="shared" si="1"/>
-        <v>330.51301049924933</v>
+        <v>4746.4242404934375</v>
       </c>
       <c r="D24" s="2">
         <f>SUM($C$6:C24)</f>
-        <v>11158.116491679168</v>
+        <v>131339.39398766391</v>
       </c>
       <c r="F24" t="s">
         <v>5</v>
@@ -814,19 +818,19 @@
       </c>
       <c r="B25" s="2">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="C25" s="2">
         <f t="shared" si="1"/>
-        <v>311.80472688608427</v>
+        <v>4563.8694620129208</v>
       </c>
       <c r="D25" s="2">
         <f>SUM($C$6:C25)</f>
-        <v>11469.921218565252</v>
+        <v>135903.26344967683</v>
       </c>
       <c r="F25" s="3">
         <f>-1*PV(B3,A25,B2)</f>
-        <v>11469.921218565263</v>
+        <v>135903.26344967698</v>
       </c>
     </row>
   </sheetData>
@@ -839,7 +843,7 @@
   <dimension ref="A2:U30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -857,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1000000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
@@ -865,7 +869,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -907,22 +911,22 @@
       </c>
       <c r="B6" s="2">
         <f>$B$2</f>
-        <v>1000000</v>
+        <v>10000</v>
       </c>
       <c r="C6" s="2">
         <f>$B6/((1 + $B$3)^A6)</f>
-        <v>990099.00990099006</v>
+        <v>9615.3846153846152</v>
       </c>
       <c r="D6" s="2">
         <f>SUM($C$6:C6)</f>
-        <v>990099.00990099006</v>
+        <v>9615.3846153846152</v>
       </c>
       <c r="F6" s="1">
         <v>0.01</v>
       </c>
       <c r="G6">
         <f>-1*PV($F6,$A$25,$B$2)</f>
-        <v>18045552.966270458</v>
+        <v>180455.52966270456</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
@@ -931,22 +935,22 @@
       </c>
       <c r="B7" s="2">
         <f t="shared" ref="B7:B25" si="0">$B$2</f>
-        <v>1000000</v>
+        <v>10000</v>
       </c>
       <c r="C7" s="2">
         <f t="shared" ref="C7:C25" si="1">$B7/((1 + $B$3)^A7)</f>
-        <v>980296.04940692091</v>
+        <v>9245.5621301775136</v>
       </c>
       <c r="D7" s="2">
         <f>SUM($C$6:C7)</f>
-        <v>1970395.059307911</v>
+        <v>18860.946745562127</v>
       </c>
       <c r="F7" s="1">
         <v>0.02</v>
       </c>
       <c r="G7">
-        <f t="shared" ref="G7:G25" si="2">-1*PV($F7,$A$25,$B$2)</f>
-        <v>16351433.344597112</v>
+        <f>-1*PV($F7,$A$25,$B$2)</f>
+        <v>163514.33344597113</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
@@ -955,22 +959,22 @@
       </c>
       <c r="B8" s="2">
         <f t="shared" si="0"/>
-        <v>1000000</v>
+        <v>10000</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" si="1"/>
-        <v>970590.14792764455</v>
+        <v>8889.9635867091474</v>
       </c>
       <c r="D8" s="2">
         <f>SUM($C$6:C8)</f>
-        <v>2940985.2072355556</v>
+        <v>27750.910332271276</v>
       </c>
       <c r="F8" s="1">
         <v>0.03</v>
       </c>
       <c r="G8">
-        <f t="shared" si="2"/>
-        <v>14877474.860455502</v>
+        <f>-1*PV($F8,$A$25,$B$2)</f>
+        <v>148774.748604555</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
@@ -979,22 +983,22 @@
       </c>
       <c r="B9" s="2">
         <f t="shared" si="0"/>
-        <v>1000000</v>
+        <v>10000</v>
       </c>
       <c r="C9" s="2">
         <f t="shared" si="1"/>
-        <v>960980.34448281629</v>
+        <v>8548.0419102972573</v>
       </c>
       <c r="D9" s="2">
         <f>SUM($C$6:C9)</f>
-        <v>3901965.5517183719</v>
+        <v>36298.952242568535</v>
       </c>
       <c r="F9" s="1">
         <v>0.04</v>
       </c>
       <c r="G9">
-        <f t="shared" si="2"/>
-        <v>13590326.344967697</v>
+        <f>-1*PV($F9,$A$25,$B$2)</f>
+        <v>135903.26344967698</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
@@ -1003,22 +1007,22 @@
       </c>
       <c r="B10" s="2">
         <f t="shared" si="0"/>
-        <v>1000000</v>
+        <v>10000</v>
       </c>
       <c r="C10" s="2">
         <f t="shared" si="1"/>
-        <v>951465.68760674889</v>
+        <v>8219.2710675935159</v>
       </c>
       <c r="D10" s="2">
         <f>SUM($C$6:C10)</f>
-        <v>4853431.239325121</v>
+        <v>44518.223310162051</v>
       </c>
       <c r="F10" s="1">
         <v>0.05</v>
       </c>
       <c r="G10">
-        <f t="shared" si="2"/>
-        <v>12462210.342539987</v>
+        <f>-1*PV($F10,$A$25,$B$2)</f>
+        <v>124622.10342539987</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
@@ -1027,22 +1031,22 @@
       </c>
       <c r="B11" s="2">
         <f t="shared" si="0"/>
-        <v>1000000</v>
+        <v>10000</v>
       </c>
       <c r="C11" s="2">
         <f t="shared" si="1"/>
-        <v>942045.23525420658</v>
+        <v>7903.1452573014567</v>
       </c>
       <c r="D11" s="2">
         <f>SUM($C$6:C11)</f>
-        <v>5795476.4745793277</v>
+        <v>52421.368567463505</v>
       </c>
       <c r="F11" s="1">
         <v>0.06</v>
       </c>
       <c r="G11">
-        <f t="shared" si="2"/>
-        <v>11469921.218565263</v>
+        <f>-1*PV($F11,$A$25,$B$2)</f>
+        <v>114699.21218565262</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
@@ -1051,22 +1055,22 @@
       </c>
       <c r="B12" s="2">
         <f t="shared" si="0"/>
-        <v>1000000</v>
+        <v>10000</v>
       </c>
       <c r="C12" s="2">
         <f t="shared" si="1"/>
-        <v>932718.05470713554</v>
+        <v>7599.1781320206328</v>
       </c>
       <c r="D12" s="2">
         <f>SUM($C$6:C12)</f>
-        <v>6728194.5292864628</v>
+        <v>60020.546699484141</v>
       </c>
       <c r="F12" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="G12">
-        <f t="shared" si="2"/>
-        <v>10594014.245516161</v>
+        <f>-1*PV($F12,$A$25,$B$2)</f>
+        <v>105940.14245516161</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
@@ -1075,22 +1079,22 @@
       </c>
       <c r="B13" s="2">
         <f t="shared" si="0"/>
-        <v>1000000</v>
+        <v>10000</v>
       </c>
       <c r="C13" s="2">
         <f t="shared" si="1"/>
-        <v>923483.22248231212</v>
+        <v>7306.9020500198376</v>
       </c>
       <c r="D13" s="2">
         <f>SUM($C$6:C13)</f>
-        <v>7651677.7517687753</v>
+        <v>67327.448749503979</v>
       </c>
       <c r="F13" s="1">
         <v>0.08</v>
       </c>
       <c r="G13">
-        <f t="shared" si="2"/>
-        <v>9818147.4074492939</v>
+        <f>-1*PV($F13,$A$25,$B$2)</f>
+        <v>98181.474074492944</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
@@ -1099,22 +1103,22 @@
       </c>
       <c r="B14" s="2">
         <f t="shared" si="0"/>
-        <v>1000000</v>
+        <v>10000</v>
       </c>
       <c r="C14" s="2">
         <f t="shared" si="1"/>
-        <v>914339.82423991291</v>
+        <v>7025.8673557883048</v>
       </c>
       <c r="D14" s="2">
         <f>SUM($C$6:C14)</f>
-        <v>8566017.5760086887</v>
+        <v>74353.316105292281</v>
       </c>
       <c r="F14" s="1">
         <v>0.09</v>
       </c>
       <c r="G14">
-        <f t="shared" si="2"/>
-        <v>9128545.6690859217</v>
+        <f t="shared" ref="G7:G25" si="2">-1*PV($F14,$A$25,$B$2)</f>
+        <v>91285.45669085921</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
@@ -1123,22 +1127,22 @@
       </c>
       <c r="B15" s="2">
         <f t="shared" si="0"/>
-        <v>1000000</v>
+        <v>10000</v>
       </c>
       <c r="C15" s="2">
         <f t="shared" si="1"/>
-        <v>905286.95469298307</v>
+        <v>6755.6416882579852</v>
       </c>
       <c r="D15" s="2">
         <f>SUM($C$6:C15)</f>
-        <v>9471304.5307016708</v>
+        <v>81108.95779355026</v>
       </c>
       <c r="F15" s="1">
         <v>0.1</v>
       </c>
       <c r="G15">
-        <f t="shared" si="2"/>
-        <v>8513563.7197585646</v>
+        <f>-1*PV($F15,$A$25,$B$2)</f>
+        <v>85135.63719758566</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
@@ -1147,22 +1151,22 @@
       </c>
       <c r="B16" s="2">
         <f t="shared" si="0"/>
-        <v>1000000</v>
+        <v>10000</v>
       </c>
       <c r="C16" s="2">
         <f t="shared" si="1"/>
-        <v>896323.71751780529</v>
+        <v>6495.8093156326786</v>
       </c>
       <c r="D16" s="2">
         <f>SUM($C$6:C16)</f>
-        <v>10367628.248219475</v>
+        <v>87604.76710918294</v>
       </c>
       <c r="F16" s="1">
         <v>0.11</v>
       </c>
       <c r="G16">
-        <f t="shared" si="2"/>
-        <v>7963328.117366882</v>
+        <f>-1*PV($F16,$A$25,$B$2)</f>
+        <v>79633.281173668831</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -1171,22 +1175,22 @@
       </c>
       <c r="B17" s="2">
         <f t="shared" si="0"/>
-        <v>1000000</v>
+        <v>10000</v>
       </c>
       <c r="C17" s="2">
         <f t="shared" si="1"/>
-        <v>887449.22526515368</v>
+        <v>6245.9704958006514</v>
       </c>
       <c r="D17" s="2">
         <f>SUM($C$6:C17)</f>
-        <v>11255077.473484628</v>
+        <v>93850.737604983588</v>
       </c>
       <c r="F17" s="1">
         <v>0.12</v>
       </c>
       <c r="G17">
-        <f t="shared" si="2"/>
-        <v>7469443.6243275963</v>
+        <f>-1*PV($F17,$A$25,$B$2)</f>
+        <v>74694.436243275981</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -1195,22 +1199,22 @@
       </c>
       <c r="B18" s="2">
         <f t="shared" si="0"/>
-        <v>1000000</v>
+        <v>10000</v>
       </c>
       <c r="C18" s="2">
         <f t="shared" si="1"/>
-        <v>878662.59927242936</v>
+        <v>6005.7408613467796</v>
       </c>
       <c r="D18" s="2">
         <f>SUM($C$6:C18)</f>
-        <v>12133740.072757058</v>
+        <v>99856.478466330373</v>
       </c>
       <c r="F18" s="1">
         <v>0.13</v>
       </c>
       <c r="G18">
         <f t="shared" si="2"/>
-        <v>7024751.5780640049</v>
+        <v>70247.515780640053</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -1219,22 +1223,22 @@
       </c>
       <c r="B19" s="2">
         <f t="shared" si="0"/>
-        <v>1000000</v>
+        <v>10000</v>
       </c>
       <c r="C19" s="2">
         <f t="shared" si="1"/>
-        <v>869962.96957666264</v>
+        <v>5774.7508282180579</v>
       </c>
       <c r="D19" s="2">
         <f>SUM($C$6:C19)</f>
-        <v>13003703.04233372</v>
+        <v>105631.22929454844</v>
       </c>
       <c r="F19" s="1">
         <v>0.14000000000000001</v>
       </c>
       <c r="G19">
         <f t="shared" si="2"/>
-        <v>6623130.5516159441</v>
+        <v>66231.305516159438</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -1243,22 +1247,22 @@
       </c>
       <c r="B20" s="2">
         <f t="shared" si="0"/>
-        <v>1000000</v>
+        <v>10000</v>
       </c>
       <c r="C20" s="2">
         <f t="shared" si="1"/>
-        <v>861349.474828379</v>
+        <v>5552.6450271327476</v>
       </c>
       <c r="D20" s="2">
         <f>SUM($C$6:C20)</f>
-        <v>13865052.517162099</v>
+        <v>111183.87432168119</v>
       </c>
       <c r="F20" s="1">
         <v>0.15</v>
       </c>
       <c r="G20">
         <f t="shared" si="2"/>
-        <v>6259331.4737296449</v>
+        <v>62593.314737296459</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -1267,22 +1271,22 @@
       </c>
       <c r="B21" s="2">
         <f t="shared" si="0"/>
-        <v>1000000</v>
+        <v>10000</v>
       </c>
       <c r="C21" s="2">
         <f t="shared" si="1"/>
-        <v>852821.26220631565</v>
+        <v>5339.0817568584107</v>
       </c>
       <c r="D21" s="2">
         <f>SUM($C$6:C21)</f>
-        <v>14717873.779368415</v>
+        <v>116522.9560785396</v>
       </c>
       <c r="F21" s="1">
         <v>0.16</v>
       </c>
       <c r="G21">
         <f t="shared" si="2"/>
-        <v>5928840.8995523239</v>
+        <v>59288.408995523234</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -1291,22 +1295,22 @@
       </c>
       <c r="B22" s="2">
         <f t="shared" si="0"/>
-        <v>1000000</v>
+        <v>10000</v>
       </c>
       <c r="C22" s="2">
         <f t="shared" si="1"/>
-        <v>844377.48733298574</v>
+        <v>5133.7324585177021</v>
       </c>
       <c r="D22" s="2">
         <f>SUM($C$6:C22)</f>
-        <v>15562251.2667014</v>
+        <v>121656.6885370573</v>
       </c>
       <c r="F22" s="1">
         <v>0.17</v>
       </c>
       <c r="G22">
         <f t="shared" si="2"/>
-        <v>5627767.3362106076</v>
+        <v>56277.67336210607</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -1315,22 +1319,22 @@
       </c>
       <c r="B23" s="2">
         <f t="shared" si="0"/>
-        <v>1000000</v>
+        <v>10000</v>
       </c>
       <c r="C23" s="2">
         <f t="shared" si="1"/>
-        <v>836017.31419107493</v>
+        <v>4936.2812101131749</v>
       </c>
       <c r="D23" s="2">
         <f>SUM($C$6:C23)</f>
-        <v>16398268.580892475</v>
+        <v>126592.96974717047</v>
       </c>
       <c r="F23" s="1">
         <v>0.18</v>
       </c>
       <c r="G23">
         <f t="shared" si="2"/>
-        <v>5352746.4971278869</v>
+        <v>53527.464971278867</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -1339,22 +1343,22 @@
       </c>
       <c r="B24" s="2">
         <f t="shared" si="0"/>
-        <v>1000000</v>
+        <v>10000</v>
       </c>
       <c r="C24" s="2">
         <f t="shared" si="1"/>
-        <v>827739.91504066845</v>
+        <v>4746.4242404934375</v>
       </c>
       <c r="D24" s="2">
         <f>SUM($C$6:C24)</f>
-        <v>17226008.495933145</v>
+        <v>131339.39398766391</v>
       </c>
       <c r="F24" s="1">
         <v>0.19</v>
       </c>
       <c r="G24">
         <f>-1*PV($F24,$A$25,$B$2)</f>
-        <v>5100862.1357728401</v>
+        <v>51008.6213577284</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -1363,22 +1367,22 @@
       </c>
       <c r="B25" s="2">
         <f t="shared" si="0"/>
-        <v>1000000</v>
+        <v>10000</v>
       </c>
       <c r="C25" s="2">
         <f t="shared" si="1"/>
-        <v>819544.47033729544</v>
+        <v>4563.8694620129208</v>
       </c>
       <c r="D25" s="2">
         <f>SUM($C$6:C25)</f>
-        <v>18045552.966270439</v>
+        <v>135903.26344967683</v>
       </c>
       <c r="F25" s="1">
         <v>0.2</v>
       </c>
       <c r="G25">
         <f t="shared" si="2"/>
-        <v>4869579.7334770551</v>
+        <v>48695.797334770548</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -1396,11 +1400,571 @@
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F29">
         <f>-1*PV(F30,$A$25,$B$2)</f>
-        <v>20000000</v>
+        <v>200000</v>
       </c>
       <c r="G29">
         <f>-1*PV(G30,$A$25,$B$2)</f>
-        <v>10000000.000000853</v>
+        <v>100000.00000000854</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F30" s="1">
+        <v>1.1815372845129261E-9</v>
+      </c>
+      <c r="G30" s="1">
+        <v>7.7546895300093871E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19117AD9-7278-B94F-9C08-D027FAF8AAAC}">
+  <dimension ref="A2:G30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2">
+        <f>$B$2</f>
+        <v>10000</v>
+      </c>
+      <c r="C6" s="2">
+        <f>$B6/((1 + $B$3)^A6)</f>
+        <v>9615.3846153846152</v>
+      </c>
+      <c r="D6" s="2">
+        <f>SUM($C$6:C6)</f>
+        <v>9615.3846153846152</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="G6">
+        <f>-1*PV($F6,$A$25,$B$2)</f>
+        <v>180455.52966270456</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2">
+        <f t="shared" ref="B7:B25" si="0">$B$2</f>
+        <v>10000</v>
+      </c>
+      <c r="C7" s="2">
+        <f t="shared" ref="C7:C25" si="1">$B7/((1 + $B$3)^A7)</f>
+        <v>9245.5621301775136</v>
+      </c>
+      <c r="D7" s="2">
+        <f>SUM($C$6:C7)</f>
+        <v>18860.946745562127</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="G7">
+        <f>-1*PV($F7,$A$25,$B$2)</f>
+        <v>163514.33344597113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+      <c r="C8" s="2">
+        <f t="shared" si="1"/>
+        <v>8889.9635867091474</v>
+      </c>
+      <c r="D8" s="2">
+        <f>SUM($C$6:C8)</f>
+        <v>27750.910332271276</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="G8">
+        <f>-1*PV($F8,$A$25,$B$2)</f>
+        <v>148774.748604555</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+      <c r="C9" s="2">
+        <f t="shared" si="1"/>
+        <v>8548.0419102972573</v>
+      </c>
+      <c r="D9" s="2">
+        <f>SUM($C$6:C9)</f>
+        <v>36298.952242568535</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="G9">
+        <f>-1*PV($F9,$A$25,$B$2)</f>
+        <v>135903.26344967698</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10" s="2">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+      <c r="C10" s="2">
+        <f t="shared" si="1"/>
+        <v>8219.2710675935159</v>
+      </c>
+      <c r="D10" s="2">
+        <f>SUM($C$6:C10)</f>
+        <v>44518.223310162051</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="G10">
+        <f>-1*PV($F10,$A$25,$B$2)</f>
+        <v>124622.10342539987</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11" s="2">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+      <c r="C11" s="2">
+        <f t="shared" si="1"/>
+        <v>7903.1452573014567</v>
+      </c>
+      <c r="D11" s="2">
+        <f>SUM($C$6:C11)</f>
+        <v>52421.368567463505</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="G11">
+        <f>-1*PV($F11,$A$25,$B$2)</f>
+        <v>114699.21218565262</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>7</v>
+      </c>
+      <c r="B12" s="2">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+      <c r="C12" s="2">
+        <f t="shared" si="1"/>
+        <v>7599.1781320206328</v>
+      </c>
+      <c r="D12" s="2">
+        <f>SUM($C$6:C12)</f>
+        <v>60020.546699484141</v>
+      </c>
+      <c r="F12" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G12">
+        <f>-1*PV($F12,$A$25,$B$2)</f>
+        <v>105940.14245516161</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>8</v>
+      </c>
+      <c r="B13" s="2">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+      <c r="C13" s="2">
+        <f t="shared" si="1"/>
+        <v>7306.9020500198376</v>
+      </c>
+      <c r="D13" s="2">
+        <f>SUM($C$6:C13)</f>
+        <v>67327.448749503979</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="G13">
+        <f>-1*PV($F13,$A$25,$B$2)</f>
+        <v>98181.474074492944</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>9</v>
+      </c>
+      <c r="B14" s="2">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+      <c r="C14" s="2">
+        <f t="shared" si="1"/>
+        <v>7025.8673557883048</v>
+      </c>
+      <c r="D14" s="2">
+        <f>SUM($C$6:C14)</f>
+        <v>74353.316105292281</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="G14">
+        <f t="shared" ref="G14:G25" si="2">-1*PV($F14,$A$25,$B$2)</f>
+        <v>91285.45669085921</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>10</v>
+      </c>
+      <c r="B15" s="2">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+      <c r="C15" s="2">
+        <f t="shared" si="1"/>
+        <v>6755.6416882579852</v>
+      </c>
+      <c r="D15" s="2">
+        <f>SUM($C$6:C15)</f>
+        <v>81108.95779355026</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G15">
+        <f>-1*PV($F15,$A$25,$B$2)</f>
+        <v>85135.63719758566</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>11</v>
+      </c>
+      <c r="B16" s="2">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+      <c r="C16" s="2">
+        <f t="shared" si="1"/>
+        <v>6495.8093156326786</v>
+      </c>
+      <c r="D16" s="2">
+        <f>SUM($C$6:C16)</f>
+        <v>87604.76710918294</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.11</v>
+      </c>
+      <c r="G16">
+        <f>-1*PV($F16,$A$25,$B$2)</f>
+        <v>79633.281173668831</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>12</v>
+      </c>
+      <c r="B17" s="2">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+      <c r="C17" s="2">
+        <f t="shared" si="1"/>
+        <v>6245.9704958006514</v>
+      </c>
+      <c r="D17" s="2">
+        <f>SUM($C$6:C17)</f>
+        <v>93850.737604983588</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="G17">
+        <f>-1*PV($F17,$A$25,$B$2)</f>
+        <v>74694.436243275981</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>13</v>
+      </c>
+      <c r="B18" s="2">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+      <c r="C18" s="2">
+        <f t="shared" si="1"/>
+        <v>6005.7408613467796</v>
+      </c>
+      <c r="D18" s="2">
+        <f>SUM($C$6:C18)</f>
+        <v>99856.478466330373</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="2"/>
+        <v>70247.515780640053</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>14</v>
+      </c>
+      <c r="B19" s="2">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+      <c r="C19" s="2">
+        <f t="shared" si="1"/>
+        <v>5774.7508282180579</v>
+      </c>
+      <c r="D19" s="2">
+        <f>SUM($C$6:C19)</f>
+        <v>105631.22929454844</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="2"/>
+        <v>66231.305516159438</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>15</v>
+      </c>
+      <c r="B20" s="2">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+      <c r="C20" s="2">
+        <f t="shared" si="1"/>
+        <v>5552.6450271327476</v>
+      </c>
+      <c r="D20" s="2">
+        <f>SUM($C$6:C20)</f>
+        <v>111183.87432168119</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="2"/>
+        <v>62593.314737296459</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>16</v>
+      </c>
+      <c r="B21" s="2">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+      <c r="C21" s="2">
+        <f t="shared" si="1"/>
+        <v>5339.0817568584107</v>
+      </c>
+      <c r="D21" s="2">
+        <f>SUM($C$6:C21)</f>
+        <v>116522.9560785396</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="2"/>
+        <v>59288.408995523234</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>17</v>
+      </c>
+      <c r="B22" s="2">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+      <c r="C22" s="2">
+        <f t="shared" si="1"/>
+        <v>5133.7324585177021</v>
+      </c>
+      <c r="D22" s="2">
+        <f>SUM($C$6:C22)</f>
+        <v>121656.6885370573</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="2"/>
+        <v>56277.67336210607</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>18</v>
+      </c>
+      <c r="B23" s="2">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+      <c r="C23" s="2">
+        <f t="shared" si="1"/>
+        <v>4936.2812101131749</v>
+      </c>
+      <c r="D23" s="2">
+        <f>SUM($C$6:C23)</f>
+        <v>126592.96974717047</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="2"/>
+        <v>53527.464971278867</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>19</v>
+      </c>
+      <c r="B24" s="2">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+      <c r="C24" s="2">
+        <f t="shared" si="1"/>
+        <v>4746.4242404934375</v>
+      </c>
+      <c r="D24" s="2">
+        <f>SUM($C$6:C24)</f>
+        <v>131339.39398766391</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="G24">
+        <f>-1*PV($F24,$A$25,$B$2)</f>
+        <v>51008.6213577284</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>20</v>
+      </c>
+      <c r="B25" s="2">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+      <c r="C25" s="2">
+        <f t="shared" si="1"/>
+        <v>4563.8694620129208</v>
+      </c>
+      <c r="D25" s="2">
+        <f>SUM($C$6:C25)</f>
+        <v>135903.26344967683</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="2"/>
+        <v>48695.797334770548</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F29">
+        <f>-1*PV(F30,$A$25,$B$2)</f>
+        <v>200000</v>
+      </c>
+      <c r="G29">
+        <f>-1*PV(G30,$A$25,$B$2)</f>
+        <v>100000.00000000854</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
